--- a/inputs/dgt.xlsx
+++ b/inputs/dgt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\source_code\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\district_thermal_energy_systems_with_power_markets\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA803ED-E33D-4478-8A03-AEEFEB14549F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF14581-02BD-4CD9-8BE7-EAA166D9BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="2280" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>p_dgt_c_inv</t>
+  </si>
+  <si>
+    <t>p_dgt_elec</t>
   </si>
 </sst>
 </file>
@@ -361,19 +364,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
         <v>3399000.0000000005</v>
       </c>
     </row>
@@ -384,20 +393,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45690EF8-0787-4222-A3FE-ACB6CD2B8582}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>'2025'!A2*(1-0.3*0.2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f>'2025'!B2*(1-0.3*0.2)</f>
         <v>3195060.0000000005</v>
       </c>
     </row>
@@ -408,20 +423,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E19C56-C44F-456C-9F61-25DA0654B4B1}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>'2025'!A2*(1-0.3*0.4)</f>
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f>'2025'!B2*(1-0.3*0.4)</f>
         <v>2991120.0000000005</v>
       </c>
     </row>
@@ -432,20 +453,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C08366A-A187-448F-95A9-2B811BDB695F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>'2025'!A2*(1-0.3*0.6)</f>
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f>'2025'!B2*(1-0.3*0.6)</f>
         <v>2787180.0000000005</v>
       </c>
     </row>
@@ -456,20 +483,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFFC2A3-5E73-48EB-A397-B717D9502D5A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>'2025'!A2*(1-0.3*0.8)</f>
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f>'2025'!B2*(1-0.3*0.8)</f>
         <v>2583240.0000000005</v>
       </c>
     </row>
@@ -480,20 +513,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672F23E-57C2-42EA-A960-2EB80F9B3C17}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>'2025'!A2*(1-0.3*1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <f>'2025'!B2*(1-0.3*1)</f>
         <v>2379300</v>
       </c>
     </row>
